--- a/docs/mobile-attack-v14.0/mobile-attack-v14.0-techniques.xlsx
+++ b/docs/mobile-attack-v14.0/mobile-attack-v14.0-techniques.xlsx
@@ -2677,13 +2677,13 @@
     <t>,</t>
   </si>
   <si>
-    <t>(Citation: TrendMicro Coronavirus Updates),(Citation: cyble_chameleon_0423),(Citation: lookout_hornbill_sunbird_0221),(Citation: nccgroup_sharkbot_0322),(Citation: Bitdefender Mandrake),(Citation: proofpoint_flubot_0421),(Citation: threatfabric_sova_0921),(Citation: lookout_abstractemu_1021),(Citation: Check Point-Joker),(Citation: Bleeipng Computer Escobar),(Citation: Talos-WolfRAT),(Citation: Android Notification Listeners)</t>
+    <t>(Citation: Talos-WolfRAT),(Citation: Bitdefender Mandrake),(Citation: proofpoint_flubot_0421),(Citation: lookout_abstractemu_1021),(Citation: TrendMicro Coronavirus Updates),(Citation: Bleeipng Computer Escobar),(Citation: threatfabric_sova_0921),(Citation: Check Point-Joker),(Citation: cyble_chameleon_0423),(Citation: lookout_hornbill_sunbird_0221),(Citation: nccgroup_sharkbot_0322),(Citation: Android Notification Listeners)</t>
   </si>
   <si>
     <t>(Citation: Lookout-Monokle),</t>
   </si>
   <si>
-    <t>(Citation: Xiao-KeyRaider),(Citation: threatfabric_sova_0921),(Citation: Skycure-Profiles),</t>
+    <t>(Citation: Xiao-KeyRaider),(Citation: Skycure-Profiles),(Citation: threatfabric_sova_0921),</t>
   </si>
   <si>
     <t>(Citation: cyble_drinik_1022),(Citation: Lookout Uyghur Campaign),</t>
@@ -2692,121 +2692,121 @@
     <t>(Citation: nccgroup_sharkbot_0322),(Citation: app_hibernation)</t>
   </si>
   <si>
-    <t>(Citation: Lookout FrozenCell),(Citation: lookout_hornbill_sunbird_0221),(Citation: Symantec GoldenCup),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Google Triada June 2019),(Citation: Lookout Desert Scorpion),(Citation: Cofense Anubis),(Citation: lookout_bouldspy_0423),(Citation: Securelist Asacub),(Citation: SWB Exodus March 2019),</t>
-  </si>
-  <si>
-    <t>(Citation: nccgroup_sharkbot_0322),(Citation: Lookout Uyghur Campaign),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: proofpoint_flubot_0421),(Citation: Lookout eSurv),</t>
-  </si>
-  <si>
-    <t>(Citation: Symantec GoldenCup),(Citation: TrendMicro-XLoader),(Citation: Lookout ViperRAT),(Citation: Cofense Anubis),(Citation: Bleeipng Computer Escobar),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-StealthMango),(Citation: SecureList - ViceLeaker 2019),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout Desert Scorpion),(Citation: Zscaler-SuperMarioRun),(Citation: TrendMicro Coronavirus Updates),(Citation: Talos-WolfRAT),(Citation: Lookout eSurv),(Citation: Lookout FrozenCell),(Citation: BlackBerry Bahamut),(Citation: Palo Alto HenBox),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Kaspersky-Skygofree),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout-Dendroid),(Citation: lookout_bouldspy_0423),(Citation: lookout_abstractemu_1021),(Citation: kaspersky_fakecalls_0422),(Citation: Lookout-EnterpriseApps),(Citation: Lookout-PegasusAndroid),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout-Pegasus),(Citation: Zscaler-SpyNote),(Citation: Bitdefender - Triout 2018),(Citation: lookout_hornbill_sunbird_0221),(Citation: SecureList BusyGasper),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Wandera-RedDrop),(Citation: Lookout Uyghur Campaign),(Citation: Zscaler TikTok Spyware),(Citation: Lookout-Monokle),(Citation: SWB Exodus March 2019),(Citation: Android Capture Sensor 2019)</t>
-  </si>
-  <si>
-    <t>(Citation: WhiteOps TERRACOTTA),(Citation: SecureList BusyGasper),(Citation: Bitdefender Mandrake),</t>
-  </si>
-  <si>
-    <t>(Citation: lookout_bouldspy_0423),(Citation: HackerNews-OldBoot),</t>
-  </si>
-  <si>
-    <t>(Citation: PaloAlto-SpyDealer),(Citation: Talos GPlayed),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Cybereason EventBot),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Palo Alto HenBox),(Citation: ESET DEFENSOR ID),(Citation: Cybereason FakeSpy),(Citation: SecurityIntelligence TrickMo),(Citation: Threat Fabric Exobot),(Citation: Zscaler TikTok Spyware),(Citation: WhiteOps TERRACOTTA),(Citation: Microsoft MalLockerB),(Citation: Lookout-PegasusAndroid),(Citation: Zscaler-SpyNote),(Citation: FortiGuard-FlexiSpy),(Citation: CheckPoint SimBad 2019),(Citation: Android Changes to System Broadcasts)</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-StealthMango),(Citation: lookout_hornbill_sunbird_0221),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout-Monokle),(Citation: Lookout-PegasusAndroid),(Citation: SWB Exodus March 2019),</t>
-  </si>
-  <si>
-    <t>(Citation: cyble_drinik_1022),(Citation: cloudmark_tanglebot_0921),(Citation: SecureList BusyGasper),(Citation: Lookout Uyghur Campaign),(Citation: Cofense Anubis),(Citation: Lookout-Monokle),(Citation: kaspersky_fakecalls_0422),(Citation: Bleeipng Computer Escobar),</t>
-  </si>
-  <si>
-    <t>(Citation: Sophos Red Alert 2.0),(Citation: Lookout ViperRAT),(Citation: Bleeipng Computer Escobar),(Citation: PaloAlto-SpyDealer),(Citation: NYTimes-BackDoor),(Citation: cyble_drinik_1022),(Citation: Lookout-StealthMango),(Citation: SecureList - ViceLeaker 2019),(Citation: cloudmark_tanglebot_0921),(Citation: Kaspersky-WUC),(Citation: Zscaler-SuperMarioRun),(Citation: TrendMicro Coronavirus Updates),(Citation: Google Project Zero Insomnia),(Citation: Talos-WolfRAT),(Citation: Palo Alto HenBox),(Citation: Lookout Dark Caracal Jan 2018),(Citation: lookout_bouldspy_0423),(Citation: lookout_abstractemu_1021),(Citation: kaspersky_fakecalls_0422),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-EnterpriseApps),(Citation: Lookout-Pegasus),(Citation: lookout_hornbill_sunbird_0221),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout Uyghur Campaign),(Citation: Zscaler TikTok Spyware),(Citation: Lookout-Monokle),(Citation: SWB Exodus March 2019),</t>
-  </si>
-  <si>
-    <t>(Citation: lookout_bouldspy_0423),(Citation: Trend Micro Bouncing Golf 2019),(Citation: PaloAlto-XcodeGhost),(Citation: TrendMicro-RCSAndroid),(Citation: Android 10 Privacy Changes)</t>
-  </si>
-  <si>
-    <t>(Citation: SecureList DVMap June 2017),(Citation: trendmicro_tianyspy_0122),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Bitdefender Mandrake),(Citation: BlackBerry Bahamut),(Citation: Lookout Uyghur Campaign),(Citation: paloalto_yispecter_1015),(Citation: Lookout Desert Scorpion),(Citation: Symantec-iOSProfile2),(Citation: Android-TrustedCA)</t>
+    <t>(Citation: Trend Micro Bouncing Golf 2019),(Citation: Symantec GoldenCup),(Citation: Google Triada June 2019),(Citation: SWB Exodus March 2019),(Citation: lookout_bouldspy_0423),(Citation: Cofense Anubis),(Citation: Lookout Desert Scorpion),(Citation: Lookout FrozenCell),(Citation: lookout_hornbill_sunbird_0221),(Citation: Securelist Asacub),</t>
+  </si>
+  <si>
+    <t>(Citation: CYBERWARCON CHEMISTGAMES),(Citation: proofpoint_flubot_0421),(Citation: Lookout eSurv),(Citation: Lookout Uyghur Campaign),(Citation: nccgroup_sharkbot_0322),</t>
+  </si>
+  <si>
+    <t>(Citation: Kaspersky-Skygofree),(Citation: SecureList BusyGasper),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout Uyghur Campaign),(Citation: Lookout FrozenCell),(Citation: TrendMicro-RCSAndroid),(Citation: lookout_hornbill_sunbird_0221),(Citation: Wandera-RedDrop),(Citation: Lookout-Monokle),(Citation: TrendMicro-XLoader),(Citation: SecureList - ViceLeaker 2019),(Citation: cloudmark_tanglebot_0921),(Citation: Palo Alto HenBox),(Citation: Lookout-Dendroid),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-EnterpriseApps),(Citation: lookout_bouldspy_0423),(Citation: Lookout eSurv),(Citation: Bitdefender - Triout 2018),(Citation: Lookout Desert Scorpion),(Citation: Zscaler-SuperMarioRun),(Citation: Lookout-StealthMango),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Talos-WolfRAT),(Citation: Symantec GoldenCup),(Citation: SWB Exodus March 2019),(Citation: lookout_abstractemu_1021),(Citation: Lookout-PegasusAndroid),(Citation: TrendMicro Coronavirus Updates),(Citation: CyberMerchants-FlexiSpy),(Citation: BlackBerry Bahamut),(Citation: Zscaler TikTok Spyware),(Citation: Cofense Anubis),(Citation: Lookout ViperRAT),(Citation: Bleeipng Computer Escobar),(Citation: Zscaler-SpyNote),(Citation: kaspersky_fakecalls_0422),(Citation: Lookout-Pegasus),(Citation: Android Capture Sensor 2019)</t>
+  </si>
+  <si>
+    <t>(Citation: Bitdefender Mandrake),(Citation: WhiteOps TERRACOTTA),(Citation: SecureList BusyGasper),</t>
+  </si>
+  <si>
+    <t>(Citation: HackerNews-OldBoot),(Citation: lookout_bouldspy_0423),</t>
+  </si>
+  <si>
+    <t>(Citation: Palo Alto HenBox),(Citation: Trend Micro Bouncing Golf 2019),(Citation: PaloAlto-SpyDealer),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: FortiGuard-FlexiSpy),(Citation: CheckPoint SimBad 2019),(Citation: Lookout-PegasusAndroid),(Citation: SecurityIntelligence TrickMo),(Citation: Zscaler TikTok Spyware),(Citation: WhiteOps TERRACOTTA),(Citation: Threat Fabric Exobot),(Citation: ESET DEFENSOR ID),(Citation: Microsoft MalLockerB),(Citation: Talos GPlayed),(Citation: Zscaler-SpyNote),(Citation: Cybereason FakeSpy),(Citation: Cybereason EventBot),(Citation: Android Changes to System Broadcasts)</t>
+  </si>
+  <si>
+    <t>(Citation: SWB Exodus March 2019),(Citation: Lookout-Monokle),(Citation: Lookout-PegasusAndroid),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout-StealthMango),(Citation: lookout_hornbill_sunbird_0221),</t>
+  </si>
+  <si>
+    <t>(Citation: SecureList BusyGasper),(Citation: Lookout-Monokle),(Citation: cyble_drinik_1022),(Citation: Lookout Uyghur Campaign),(Citation: Cofense Anubis),(Citation: Bleeipng Computer Escobar),(Citation: cloudmark_tanglebot_0921),(Citation: kaspersky_fakecalls_0422),</t>
+  </si>
+  <si>
+    <t>(Citation: Sophos Red Alert 2.0),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout Uyghur Campaign),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout-Monokle),(Citation: Google Project Zero Insomnia),(Citation: Kaspersky-WUC),(Citation: SecureList - ViceLeaker 2019),(Citation: cloudmark_tanglebot_0921),(Citation: NYTimes-BackDoor),(Citation: Palo Alto HenBox),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-EnterpriseApps),(Citation: lookout_bouldspy_0423),(Citation: cyble_drinik_1022),(Citation: Zscaler-SuperMarioRun),(Citation: Lookout-StealthMango),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Talos-WolfRAT),(Citation: SWB Exodus March 2019),(Citation: lookout_abstractemu_1021),(Citation: Lookout-PegasusAndroid),(Citation: TrendMicro Coronavirus Updates),(Citation: Zscaler TikTok Spyware),(Citation: Lookout ViperRAT),(Citation: Bleeipng Computer Escobar),(Citation: kaspersky_fakecalls_0422),(Citation: Lookout-Pegasus),</t>
+  </si>
+  <si>
+    <t>(Citation: TrendMicro-RCSAndroid),(Citation: Trend Micro Bouncing Golf 2019),(Citation: PaloAlto-XcodeGhost),(Citation: lookout_bouldspy_0423),(Citation: Android 10 Privacy Changes)</t>
+  </si>
+  <si>
+    <t>(Citation: Bitdefender Mandrake),(Citation: SecureList DVMap June 2017),(Citation: Lookout Uyghur Campaign),(Citation: BlackBerry Bahamut),(Citation: Lookout Desert Scorpion),(Citation: paloalto_yispecter_1015),(Citation: trendmicro_tianyspy_0122),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Android-TrustedCA),(Citation: Symantec-iOSProfile2)</t>
   </si>
   <si>
     <t>(Citation: trendmicro_tianyspy_0122),</t>
   </si>
   <si>
-    <t>(Citation: lookout_bouldspy_0423),(Citation: CheckPoint Agent Smith),(Citation: paloalto_yispecter_1015),</t>
-  </si>
-  <si>
-    <t>(Citation: SecureList BusyGasper),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Adware),(Citation: Lookout-BrainTest),(Citation: Lookout-Monokle),(Citation: Lookout-PegasusAndroid),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-Pegasus),</t>
-  </si>
-  <si>
-    <t>(Citation: PaloAlto-XcodeGhost1),(Citation: PaloAlto-XcodeGhost),</t>
-  </si>
-  <si>
-    <t>(Citation: NYTimes-BackDoor),(Citation: Lookout-StealthMango),(Citation: Google Triada June 2019),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Krebs-Triada June 2019),(Citation: HackerNews-Allwinner),(Citation: BankInfoSecurity-BackDoor),</t>
-  </si>
-  <si>
-    <t>(Citation: Sophos Red Alert 2.0),(Citation: securelist rotexy 2018),(Citation: Symantec GoldenCup),(Citation: Lookout ViperRAT),(Citation: proofpoint_flubot_0421),(Citation: Cofense Anubis),(Citation: PaloAlto-SpyDealer),(Citation: ThreatFabric Ginp),(Citation: NYTimes-BackDoor),(Citation: Lookout-StealthMango),(Citation: cloudmark_tanglebot_0921),(Citation: Threat Fabric Cerberus),(Citation: Lookout Desert Scorpion),(Citation: Threat Fabric Exobot),(Citation: Kaspersky-WUC),(Citation: Securelist Asacub),(Citation: TrendMicro Coronavirus Updates),(Citation: Google Project Zero Insomnia),(Citation: Talos-WolfRAT),(Citation: Lookout eSurv),(Citation: BlackBerry Bahamut),(Citation: Talos Gustuff Apr 2019),(Citation: Palo Alto HenBox),(Citation: Bitdefender Mandrake),(Citation: Lookout Dark Caracal Jan 2018),(Citation: CyberMerchants-FlexiSpy),(Citation: lookout_bouldspy_0423),(Citation: lookout_abstractemu_1021),(Citation: kaspersky_fakecalls_0422),(Citation: Lookout-EnterpriseApps),(Citation: Lookout-PegasusAndroid),(Citation: Zscaler-SpyNote),(Citation: Lookout-Pegasus),(Citation: lookout_hornbill_sunbird_0221),(Citation: Talos GPlayed),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout Uyghur Campaign),(Citation: Kaspersky Riltok June 2019),(Citation: Cybereason FakeSpy),(Citation: CheckPoint-Charger),(Citation: Zscaler TikTok Spyware),(Citation: Lookout-Monokle),(Citation: SWB Exodus March 2019),</t>
-  </si>
-  <si>
-    <t>(Citation: cleafy_sova_1122),(Citation: PaloAlto-Xbot),(Citation: Cofense Anubis),</t>
-  </si>
-  <si>
-    <t>(Citation: Trend Micro Anubis),(Citation: FlexiSpy-Features),(Citation: Symantec GoldenCup),(Citation: Lookout ViperRAT),(Citation: Cofense Anubis),(Citation: Bleeipng Computer Escobar),(Citation: Lookout-Monokle),(Citation: ThreatFabric Ginp),(Citation: cyble_drinik_1022),(Citation: Lookout-StealthMango),(Citation: SecureList - ViceLeaker 2019),(Citation: cloudmark_tanglebot_0921),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Gooligan Citation),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout Desert Scorpion),(Citation: TrendMicro Coronavirus Updates),(Citation: Google Project Zero Insomnia),(Citation: Talos-WolfRAT),(Citation: Lookout eSurv),(Citation: Lookout FrozenCell),(Citation: BlackBerry Bahamut),(Citation: Talos Gustuff Apr 2019),(Citation: Palo Alto HenBox),(Citation: Lookout-Dendroid),(Citation: lookout_bouldspy_0423),(Citation: lookout_abstractemu_1021),(Citation: kaspersky_fakecalls_0422),(Citation: TrendMicro-RCSAndroid),(Citation: Zscaler-SpyNote),(Citation: Bitdefender - Triout 2018),(Citation: cyble_chameleon_0423),(Citation: lookout_hornbill_sunbird_0221),(Citation: Talos GPlayed),(Citation: SecureList BusyGasper),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout Uyghur Campaign),(Citation: Zscaler TikTok Spyware),(Citation: Cylance Dust Storm),(Citation: SWB Exodus March 2019),</t>
-  </si>
-  <si>
-    <t>(Citation: Sophos Red Alert 2.0),(Citation: Trend Micro Anubis),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: TrendMicro-Anserver),(Citation: Cofense Anubis),</t>
-  </si>
-  <si>
-    <t>(Citation: Proofpoint-Marcher),(Citation: lookout_hornbill_sunbird_0221),(Citation: Talos GPlayed),(Citation: Sophos Red Alert 2.0),(Citation: TrendMicro-XLoader),(Citation: Threat Fabric Exobot),(Citation: Securelist Asacub),(Citation: lookout_abstractemu_1021),(Citation: GoogleIO2016)</t>
-  </si>
-  <si>
-    <t>(Citation: SecurityIntelligence TrickMo),(Citation: Microsoft MalLockerB),(Citation: securelist rotexy 2018),</t>
-  </si>
-  <si>
-    <t>(Citation: cyble_chameleon_0423),(Citation: cyble_drinik_1022),(Citation: SecureList DVMap June 2017),(Citation: Bitdefender Mandrake),(Citation: Google Security Zen),(Citation: proofpoint_flubot_0421),(Citation: Threat Fabric Cerberus),(Citation: Cofense Anubis),(Citation: lookout_abstractemu_1021),</t>
-  </si>
-  <si>
-    <t>(Citation: proofpoint_flubot_0421),(Citation: Bitdefender Mandrake),(Citation: securelist rotexy 2018),(Citation: nccgroup_sharkbot_0322),</t>
-  </si>
-  <si>
-    <t>(Citation: Trend Micro Anubis),(Citation: SecureList DVMap June 2017),(Citation: Sophos Red Alert 2.0),(Citation: Symantec GoldenCup),(Citation: Lookout ViperRAT),(Citation: Google Bread),(Citation: Xiao-ZergHelper),(Citation: PaloAlto-SpyDealer),(Citation: Cybereason EventBot),(Citation: Google Security Zen),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: paloalto_yispecter_1015),(Citation: Threat Fabric Cerberus),(Citation: Lookout Desert Scorpion),(Citation: Talos-WolfRAT),(Citation: Lookout eSurv),(Citation: Lookout FrozenCell),(Citation: BlackBerry Bahamut),(Citation: Palo Alto HenBox),(Citation: Bitdefender Mandrake),(Citation: Kaspersky-Skygofree),(Citation: lookout_bouldspy_0423),(Citation: lookout_abstractemu_1021),(Citation: TrendMicro-RCSAndroid),(Citation: WhiteOps TERRACOTTA),(Citation: cyble_chameleon_0423),(Citation: Talos GPlayed),(Citation: nccgroup_sharkbot_0322),(Citation: CheckPoint-Judy),(Citation: SecureList BusyGasper),(Citation: Google Triada June 2019),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-BrainTest),(Citation: SWB Exodus March 2019),(Citation: Android 10 Execute)</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-Pegasus),(Citation: Lookout-StealthMango),(Citation: paloalto_yispecter_1015),(Citation: Volexity Insomnia),</t>
+    <t>(Citation: paloalto_yispecter_1015),(Citation: CheckPoint Agent Smith),(Citation: lookout_bouldspy_0423),</t>
+  </si>
+  <si>
+    <t>(Citation: PaloAlto-SpyDealer),(Citation: SecureList BusyGasper),(Citation: Lookout-Monokle),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-BrainTest),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Adware),(Citation: Lookout-Pegasus),</t>
+  </si>
+  <si>
+    <t>(Citation: PaloAlto-XcodeGhost),(Citation: PaloAlto-XcodeGhost1),</t>
+  </si>
+  <si>
+    <t>(Citation: CYBERWARCON CHEMISTGAMES),(Citation: HackerNews-Allwinner),(Citation: Krebs-Triada June 2019),(Citation: NYTimes-BackDoor),(Citation: Lookout-StealthMango),(Citation: BankInfoSecurity-BackDoor),(Citation: Google Triada June 2019),</t>
+  </si>
+  <si>
+    <t>(Citation: Sophos Red Alert 2.0),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout Uyghur Campaign),(Citation: Talos GPlayed),(Citation: lookout_hornbill_sunbird_0221),(Citation: proofpoint_flubot_0421),(Citation: Lookout-Monokle),(Citation: Google Project Zero Insomnia),(Citation: Kaspersky-WUC),(Citation: securelist rotexy 2018),(Citation: cloudmark_tanglebot_0921),(Citation: NYTimes-BackDoor),(Citation: Palo Alto HenBox),(Citation: Bitdefender Mandrake),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-EnterpriseApps),(Citation: ThreatFabric Ginp),(Citation: Threat Fabric Cerberus),(Citation: lookout_bouldspy_0423),(Citation: Lookout eSurv),(Citation: Lookout Desert Scorpion),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout-StealthMango),(Citation: Threat Fabric Exobot),(Citation: Securelist Asacub),(Citation: Kaspersky Riltok June 2019),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Talos-WolfRAT),(Citation: Symantec GoldenCup),(Citation: SWB Exodus March 2019),(Citation: lookout_abstractemu_1021),(Citation: Lookout-PegasusAndroid),(Citation: TrendMicro Coronavirus Updates),(Citation: CheckPoint-Charger),(Citation: BlackBerry Bahamut),(Citation: CyberMerchants-FlexiSpy),(Citation: Cofense Anubis),(Citation: Zscaler TikTok Spyware),(Citation: Lookout ViperRAT),(Citation: Zscaler-SpyNote),(Citation: Cybereason FakeSpy),(Citation: kaspersky_fakecalls_0422),(Citation: Lookout-Pegasus),</t>
+  </si>
+  <si>
+    <t>(Citation: Cofense Anubis),(Citation: cleafy_sova_1122),(Citation: PaloAlto-Xbot),</t>
+  </si>
+  <si>
+    <t>(Citation: SecureList BusyGasper),(Citation: Gooligan Citation),(Citation: Lookout Uyghur Campaign),(Citation: Lookout FrozenCell),(Citation: TrendMicro-RCSAndroid),(Citation: Talos GPlayed),(Citation: cyble_chameleon_0423),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout-Monokle),(Citation: Google Project Zero Insomnia),(Citation: SecureList - ViceLeaker 2019),(Citation: cloudmark_tanglebot_0921),(Citation: SecurityIntelligence TrickMo),(Citation: Palo Alto HenBox),(Citation: Lookout-Dendroid),(Citation: ThreatFabric Ginp),(Citation: lookout_bouldspy_0423),(Citation: Lookout eSurv),(Citation: cyble_drinik_1022),(Citation: Bitdefender - Triout 2018),(Citation: Lookout Desert Scorpion),(Citation: FlexiSpy-Features),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout-StealthMango),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Talos-WolfRAT),(Citation: Symantec GoldenCup),(Citation: SWB Exodus March 2019),(Citation: lookout_abstractemu_1021),(Citation: TrendMicro Coronavirus Updates),(Citation: BlackBerry Bahamut),(Citation: Zscaler TikTok Spyware),(Citation: Trend Micro Anubis),(Citation: Cofense Anubis),(Citation: Lookout ViperRAT),(Citation: Bleeipng Computer Escobar),(Citation: Zscaler-SpyNote),(Citation: kaspersky_fakecalls_0422),(Citation: Cylance Dust Storm),</t>
+  </si>
+  <si>
+    <t>(Citation: Sophos Red Alert 2.0),(Citation: TrendMicro-Anserver),(Citation: Cofense Anubis),(Citation: Trend Micro Anubis),(Citation: TrendMicro-XLoader-FakeSpy),</t>
+  </si>
+  <si>
+    <t>(Citation: Sophos Red Alert 2.0),(Citation: lookout_abstractemu_1021),(Citation: TrendMicro-XLoader),(Citation: Proofpoint-Marcher),(Citation: Talos GPlayed),(Citation: lookout_hornbill_sunbird_0221),(Citation: Threat Fabric Exobot),(Citation: Securelist Asacub),(Citation: GoogleIO2016)</t>
+  </si>
+  <si>
+    <t>(Citation: securelist rotexy 2018),(Citation: SecurityIntelligence TrickMo),(Citation: Microsoft MalLockerB),</t>
+  </si>
+  <si>
+    <t>(Citation: Bitdefender Mandrake),(Citation: proofpoint_flubot_0421),(Citation: Threat Fabric Cerberus),(Citation: lookout_abstractemu_1021),(Citation: SecureList DVMap June 2017),(Citation: cyble_drinik_1022),(Citation: Cofense Anubis),(Citation: cyble_chameleon_0423),(Citation: Google Security Zen),</t>
+  </si>
+  <si>
+    <t>(Citation: Bitdefender Mandrake),(Citation: proofpoint_flubot_0421),(Citation: securelist rotexy 2018),(Citation: nccgroup_sharkbot_0322),</t>
+  </si>
+  <si>
+    <t>(Citation: Sophos Red Alert 2.0),(Citation: Kaspersky-Skygofree),(Citation: SecureList BusyGasper),(Citation: Lookout Uyghur Campaign),(Citation: Lookout FrozenCell),(Citation: TrendMicro-RCSAndroid),(Citation: Talos GPlayed),(Citation: Cybereason EventBot),(Citation: cyble_chameleon_0423),(Citation: Google Security Zen),(Citation: Palo Alto HenBox),(Citation: Bitdefender Mandrake),(Citation: PaloAlto-SpyDealer),(Citation: Threat Fabric Cerberus),(Citation: lookout_bouldspy_0423),(Citation: SecureList DVMap June 2017),(Citation: Lookout eSurv),(Citation: Lookout-BrainTest),(Citation: Lookout Desert Scorpion),(Citation: WhiteOps TERRACOTTA),(Citation: paloalto_yispecter_1015),(Citation: Google Triada June 2019),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Talos-WolfRAT),(Citation: Symantec GoldenCup),(Citation: SWB Exodus March 2019),(Citation: lookout_abstractemu_1021),(Citation: CheckPoint-Judy),(Citation: BlackBerry Bahamut),(Citation: Lookout ViperRAT),(Citation: Trend Micro Anubis),(Citation: Google Bread),(Citation: Xiao-ZergHelper),(Citation: nccgroup_sharkbot_0322),(Citation: Android 10 Execute)</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-StealthMango),(Citation: Lookout-Pegasus),(Citation: Volexity Insomnia),(Citation: paloalto_yispecter_1015),</t>
   </si>
   <si>
     <t>(Citation: ESET-Twitoor),</t>
   </si>
   <si>
-    <t>(Citation: CheckPoint-Charger),(Citation: Talos GPlayed),(Citation: Threat Fabric Exobot),(Citation: PaloAlto-Xbot),</t>
+    <t>(Citation: Threat Fabric Exobot),(Citation: CheckPoint-Charger),(Citation: Talos GPlayed),(Citation: PaloAlto-Xbot),</t>
   </si>
   <si>
     <t>(Citation: lookout_bouldspy_0423),(Citation: Android Changes to System Broadcasts)</t>
   </si>
   <si>
-    <t>(Citation: TrendMicro-XLoader-FakeSpy),(Citation: proofpoint_flubot_0421),(Citation: cyble_drinik_1022),(Citation: SecureList - ViceLeaker 2019),(Citation: Zimperium FlyTrap),(Citation: Lookout eSurv),(Citation: Lookout Dark Caracal Jan 2018),(Citation: lookout_bouldspy_0423),(Citation: lookout_abstractemu_1021),(Citation: kaspersky_fakecalls_0422),(Citation: Bitdefender - Triout 2018),(Citation: cyble_chameleon_0423),(Citation: lookout_hornbill_sunbird_0221),(Citation: nccgroup_sharkbot_0322),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Wandera-RedDrop),(Citation: Google Triada June 2019),(Citation: Lookout Uyghur Campaign),(Citation: Cylance Dust Storm),</t>
+    <t>(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout Uyghur Campaign),(Citation: lookout_hornbill_sunbird_0221),(Citation: cyble_chameleon_0423),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: proofpoint_flubot_0421),(Citation: Wandera-RedDrop),(Citation: SecureList - ViceLeaker 2019),(Citation: lookout_bouldspy_0423),(Citation: Lookout eSurv),(Citation: cyble_drinik_1022),(Citation: Bitdefender - Triout 2018),(Citation: Google Triada June 2019),(Citation: Trend Micro Bouncing Golf 2019),(Citation: lookout_abstractemu_1021),(Citation: Zimperium FlyTrap),(Citation: kaspersky_fakecalls_0422),(Citation: Cylance Dust Storm),(Citation: nccgroup_sharkbot_0322),</t>
   </si>
   <si>
     <t>(Citation: TrendMicro Coronavirus Updates),(Citation: SecureList BusyGasper),</t>
   </si>
   <si>
-    <t>(Citation: SecureList DVMap June 2017),(Citation: Volexity Insomnia),(Citation: CheckPoint Agent Smith),(Citation: Google Security Zen),(Citation: Lookout-PegasusAndroid),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Gooligan Citation),(Citation: Lookout-Adware),(Citation: Kaspersky-Skygofree),(Citation: Lookout-BrainTest),(Citation: lookout_abstractemu_1021),(Citation: ArsTechnica-HummingBad),(Citation: SWB Exodus March 2019),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-Pegasus),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-NotCompatible),(Citation: TrendMicro-DressCode),</t>
-  </si>
-  <si>
-    <t>(Citation: lookout_hornbill_sunbird_0221),(Citation: Talos GPlayed),(Citation: SecureList - ViceLeaker 2019),(Citation: CheckPoint Agent Smith),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Bitdefender Mandrake),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Dark Caracal Jan 2018),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout Desert Scorpion),(Citation: Zscaler TikTok Spyware),(Citation: Lookout-Monokle),(Citation: kaspersky_fakecalls_0422),(Citation: Talos-WolfRAT),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout FrozenCell),(Citation: lookout_hornbill_sunbird_0221),(Citation: Symantec GoldenCup),(Citation: BlackBerry Bahamut),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Desert Scorpion),(Citation: Zscaler TikTok Spyware),(Citation: Cylance Dust Storm),(Citation: Bleeipng Computer Escobar),</t>
-  </si>
-  <si>
-    <t>(Citation: WhiteOps TERRACOTTA),(Citation: cyble_drinik_1022),(Citation: Bitdefender Mandrake),(Citation: Zscaler TikTok Spyware),</t>
-  </si>
-  <si>
-    <t>(Citation: Proofpoint-Marcher),(Citation: Sophos Red Alert 2.0),(Citation: securelist rotexy 2018),(Citation: Trend Micro FlyTrap),(Citation: proofpoint_flubot_0421),(Citation: Cofense Anubis),(Citation: Bleeipng Computer Escobar),(Citation: ThreatFabric Ginp),(Citation: cyble_drinik_1022),(Citation: Group IB Gustuff Mar 2019),(Citation: Cybereason EventBot),(Citation: cloudmark_tanglebot_0921),(Citation: Threat Fabric Cerberus),(Citation: Threat Fabric Exobot),(Citation: PaloAlto-Xbot),(Citation: trendmicro_tianyspy_0122),(Citation: Bitdefender Mandrake),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-Dendroid),(Citation: WhiteOps TERRACOTTA),(Citation: cyble_chameleon_0423),(Citation: Talos GPlayed),(Citation: PaloAlto-XcodeGhost),(Citation: nccgroup_sharkbot_0322),(Citation: Kaspersky Riltok June 2019),(Citation: Zscaler TikTok Spyware),(Citation: threatfabric_sova_0921),(Citation: Android 12 Features)</t>
-  </si>
-  <si>
-    <t>(Citation: WeLiveSecurity AdDisplayAshas),(Citation: CheckPoint-Judy),(Citation: CheckPoint Agent Smith),(Citation: Wandera-RedDrop),(Citation: Google Triada June 2019),(Citation: Kaspersky Triada June 2016),(Citation: Gooligan Citation),(Citation: Google Bread),(Citation: Google Security Zen),(Citation: Tripwire-MazarBOT),(Citation: ArsTechnica-HummingWhale),(Citation: Lookout-BrainTest),(Citation: WhiteOps TERRACOTTA),(Citation: ArsTechnica-HummingBad),(Citation: Lookout-EnterpriseApps),(Citation: CheckPoint SimBad 2019),</t>
-  </si>
-  <si>
-    <t>(Citation: BlackBerry Bahamut),(Citation: Lookout eSurv),</t>
+    <t>(Citation: PaloAlto-SpyDealer),(Citation: CheckPoint Agent Smith),(Citation: Kaspersky-Skygofree),(Citation: SWB Exodus March 2019),(Citation: Lookout Dark Caracal Jan 2018),(Citation: lookout_abstractemu_1021),(Citation: SecureList DVMap June 2017),(Citation: Gooligan Citation),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-BrainTest),(Citation: ArsTechnica-HummingBad),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Adware),(Citation: Lookout-Pegasus),(Citation: Volexity Insomnia),(Citation: Google Security Zen),</t>
+  </si>
+  <si>
+    <t>(Citation: TrendMicro-DressCode),(Citation: Lookout-NotCompatible),</t>
+  </si>
+  <si>
+    <t>(Citation: Trend Micro Bouncing Golf 2019),(Citation: Bitdefender Mandrake),(Citation: Talos-WolfRAT),(Citation: CheckPoint Agent Smith),(Citation: Lookout-Monokle),(Citation: Lookout Dark Caracal Jan 2018),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout Uyghur Campaign),(Citation: Zscaler TikTok Spyware),(Citation: Lookout Desert Scorpion),(Citation: SecureList - ViceLeaker 2019),(Citation: Talos GPlayed),(Citation: kaspersky_fakecalls_0422),(Citation: lookout_hornbill_sunbird_0221),</t>
+  </si>
+  <si>
+    <t>(Citation: Symantec GoldenCup),(Citation: Lookout Uyghur Campaign),(Citation: BlackBerry Bahamut),(Citation: Lookout FrozenCell),(Citation: Lookout Desert Scorpion),(Citation: Zscaler TikTok Spyware),(Citation: Bleeipng Computer Escobar),(Citation: lookout_hornbill_sunbird_0221),(Citation: Cylance Dust Storm),</t>
+  </si>
+  <si>
+    <t>(Citation: Bitdefender Mandrake),(Citation: cyble_drinik_1022),(Citation: Zscaler TikTok Spyware),(Citation: WhiteOps TERRACOTTA),</t>
+  </si>
+  <si>
+    <t>(Citation: Sophos Red Alert 2.0),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Proofpoint-Marcher),(Citation: Group IB Gustuff Mar 2019),(Citation: Trend Micro FlyTrap),(Citation: Talos GPlayed),(Citation: Cybereason EventBot),(Citation: cyble_chameleon_0423),(Citation: proofpoint_flubot_0421),(Citation: securelist rotexy 2018),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout-Dendroid),(Citation: Bitdefender Mandrake),(Citation: ThreatFabric Ginp),(Citation: Threat Fabric Cerberus),(Citation: cyble_drinik_1022),(Citation: WhiteOps TERRACOTTA),(Citation: Talos Gustuff Apr 2019),(Citation: trendmicro_tianyspy_0122),(Citation: PaloAlto-XcodeGhost),(Citation: Threat Fabric Exobot),(Citation: PaloAlto-Xbot),(Citation: Kaspersky Riltok June 2019),(Citation: Zscaler TikTok Spyware),(Citation: Cofense Anubis),(Citation: Bleeipng Computer Escobar),(Citation: threatfabric_sova_0921),(Citation: nccgroup_sharkbot_0322),(Citation: Android 12 Features)</t>
+  </si>
+  <si>
+    <t>(Citation: CheckPoint Agent Smith),(Citation: Lookout-EnterpriseApps),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Gooligan Citation),(Citation: Wandera-RedDrop),(Citation: CheckPoint-Judy),(Citation: CheckPoint SimBad 2019),(Citation: Kaspersky Triada June 2016),(Citation: Lookout-BrainTest),(Citation: ArsTechnica-HummingBad),(Citation: Tripwire-MazarBOT),(Citation: Google Bread),(Citation: WhiteOps TERRACOTTA),(Citation: ArsTechnica-HummingWhale),(Citation: Google Triada June 2019),(Citation: Google Security Zen),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout eSurv),(Citation: BlackBerry Bahamut),</t>
   </si>
   <si>
     <t>(Citation: paloalto_yispecter_1015),(Citation: Android-VerifiedBoot)</t>
@@ -2818,133 +2818,133 @@
     <t>(Citation: cyble_chameleon_0423),</t>
   </si>
   <si>
-    <t>(Citation: cyble_chameleon_0423),(Citation: lookout_hornbill_sunbird_0221),(Citation: SecureList - ViceLeaker 2019),(Citation: nccgroup_sharkbot_0322),(Citation: Bitdefender Mandrake),(Citation: Wandera-RedDrop),(Citation: lookout_abstractemu_1021),(Citation: Lookout-Monokle),</t>
-  </si>
-  <si>
-    <t>,(Citation: Samsung Keyboards),(Citation: Android 12 Features)</t>
-  </si>
-  <si>
-    <t>(Citation: CheckPoint Cerberus),(Citation: nccgroup_sharkbot_0322),(Citation: Bitdefender Mandrake),(Citation: Talos Gustuff Apr 2019),(Citation: ESET DEFENSOR ID),(Citation: Kaspersky Riltok June 2019),(Citation: cleafy_sova_1122),(Citation: SecurityIntelligence TrickMo),(Citation: Google Security Zen),(Citation: Threat Fabric Cerberus),(Citation: WhiteOps TERRACOTTA),(Citation: ThreatFabric Ginp),</t>
+    <t>(Citation: Bitdefender Mandrake),(Citation: Wandera-RedDrop),(Citation: Lookout-Monokle),(Citation: lookout_abstractemu_1021),(Citation: SecureList - ViceLeaker 2019),(Citation: cyble_chameleon_0423),(Citation: lookout_hornbill_sunbird_0221),(Citation: nccgroup_sharkbot_0322),</t>
+  </si>
+  <si>
+    <t>,(Citation: Android 12 Features),(Citation: Samsung Keyboards)</t>
+  </si>
+  <si>
+    <t>(Citation: Kaspersky Riltok June 2019),(Citation: Bitdefender Mandrake),(Citation: cleafy_sova_1122),(Citation: ThreatFabric Ginp),(Citation: Threat Fabric Cerberus),(Citation: CheckPoint Cerberus),(Citation: Google Security Zen),(Citation: WhiteOps TERRACOTTA),(Citation: Talos Gustuff Apr 2019),(Citation: ESET DEFENSOR ID),(Citation: SecurityIntelligence TrickMo),(Citation: nccgroup_sharkbot_0322),</t>
   </si>
   <si>
     <t>(Citation: Google Project Zero Insomnia),</t>
   </si>
   <si>
-    <t>(Citation: cyble_chameleon_0423),(Citation: cyble_drinik_1022),(Citation: FlexiSpy-Features),(Citation: Cybereason EventBot),(Citation: nccgroup_sharkbot_0322),(Citation: SecureList BusyGasper),(Citation: BlackBerry Bahamut),(Citation: Talos Gustuff Apr 2019),(Citation: Threat Fabric Cerberus),(Citation: Threat Fabric Exobot),(Citation: threatfabric_sova_0921),(Citation: Cofense Anubis),(Citation: lookout_bouldspy_0423),(Citation: Lookout-Monokle),(Citation: Bleeipng Computer Escobar),(Citation: Samsung Keyboards)</t>
-  </si>
-  <si>
-    <t>(Citation: Trend Micro FlyTrap),(Citation: Symantec GoldenCup),(Citation: Lookout ViperRAT),(Citation: Cofense Anubis),(Citation: Bleeipng Computer Escobar),(Citation: PaloAlto-SpyDealer),(Citation: NYTimes-BackDoor),(Citation: Lookout-StealthMango),(Citation: SecureList - ViceLeaker 2019),(Citation: cloudmark_tanglebot_0921),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Threat Fabric Cerberus),(Citation: Lookout Desert Scorpion),(Citation: Kaspersky-WUC),(Citation: TrendMicro Coronavirus Updates),(Citation: Google Project Zero Insomnia),(Citation: Lookout eSurv),(Citation: Lookout FrozenCell),(Citation: CrowdStrike-Android),(Citation: BlackBerry Bahamut),(Citation: Palo Alto HenBox),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Bitdefender Mandrake),(Citation: Kaspersky-Skygofree),(Citation: CyberMerchants-FlexiSpy),(Citation: lookout_bouldspy_0423),(Citation: lookout_abstractemu_1021),(Citation: kaspersky_fakecalls_0422),(Citation: Lookout-EnterpriseApps),(Citation: TrendMicro-RCSAndroid),(Citation: Zscaler-SpyNote),(Citation: Lookout-Pegasus),(Citation: Bitdefender - Triout 2018),(Citation: cyble_chameleon_0423),(Citation: lookout_hornbill_sunbird_0221),(Citation: Talos GPlayed),(Citation: SecureList BusyGasper),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout Uyghur Campaign),(Citation: CheckPoint-Charger),(Citation: Zscaler TikTok Spyware),(Citation: Lookout-Monokle),(Citation: SWB Exodus March 2019),(Citation: CSRIC5-WG10-FinalReport)</t>
+    <t>(Citation: Threat Fabric Cerberus),(Citation: SecureList BusyGasper),(Citation: lookout_bouldspy_0423),(Citation: Cybereason EventBot),(Citation: Lookout-Monokle),(Citation: cyble_drinik_1022),(Citation: BlackBerry Bahamut),(Citation: Cofense Anubis),(Citation: FlexiSpy-Features),(Citation: Bleeipng Computer Escobar),(Citation: Threat Fabric Exobot),(Citation: Talos Gustuff Apr 2019),(Citation: threatfabric_sova_0921),(Citation: cyble_chameleon_0423),(Citation: nccgroup_sharkbot_0322),(Citation: Samsung Keyboards)</t>
+  </si>
+  <si>
+    <t>(Citation: Kaspersky-Skygofree),(Citation: SecureList BusyGasper),(Citation: Lookout Dark Caracal Jan 2018),(Citation: CrowdStrike-Android),(Citation: Lookout Uyghur Campaign),(Citation: Lookout FrozenCell),(Citation: TrendMicro-RCSAndroid),(Citation: Trend Micro FlyTrap),(Citation: Talos GPlayed),(Citation: cyble_chameleon_0423),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout-Monokle),(Citation: Google Project Zero Insomnia),(Citation: Kaspersky-WUC),(Citation: SecureList - ViceLeaker 2019),(Citation: cloudmark_tanglebot_0921),(Citation: NYTimes-BackDoor),(Citation: Palo Alto HenBox),(Citation: Bitdefender Mandrake),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-EnterpriseApps),(Citation: Threat Fabric Cerberus),(Citation: lookout_bouldspy_0423),(Citation: Lookout eSurv),(Citation: Bitdefender - Triout 2018),(Citation: Lookout Desert Scorpion),(Citation: Lookout-StealthMango),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Symantec GoldenCup),(Citation: SWB Exodus March 2019),(Citation: lookout_abstractemu_1021),(Citation: TrendMicro Coronavirus Updates),(Citation: CheckPoint-Charger),(Citation: BlackBerry Bahamut),(Citation: CyberMerchants-FlexiSpy),(Citation: Cofense Anubis),(Citation: Zscaler TikTok Spyware),(Citation: Lookout ViperRAT),(Citation: Bleeipng Computer Escobar),(Citation: Zscaler-SpyNote),(Citation: kaspersky_fakecalls_0422),(Citation: Lookout-Pegasus),(Citation: CSRIC5-WG10-FinalReport)</t>
   </si>
   <si>
     <t>(Citation: Bleeipng Computer Escobar),</t>
   </si>
   <si>
-    <t>(Citation: Trend Micro Anubis),(Citation: Sophos Red Alert 2.0),(Citation: Lookout ViperRAT),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: MoustachedBouncer ESET August 2023),(Citation: Cofense Anubis),(Citation: Proofpoint-Droidjack),(Citation: CheckPoint SimBad 2019),(Citation: ThreatFabric Ginp),(Citation: SecureList - ViceLeaker 2019),(Citation: Cybereason EventBot),(Citation: CheckPoint Agent Smith),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Forbes Cerberus),(Citation: Threat Fabric Exobot),(Citation: Securelist Asacub),(Citation: Microsoft MalLockerB),(Citation: Talos-WolfRAT),(Citation: Lookout FrozenCell),(Citation: CrowdStrike-Android),(Citation: Bitdefender Mandrake),(Citation: Palo Alto HenBox),(Citation: Lookout-Dendroid),(Citation: lookout_bouldspy_0423),(Citation: kaspersky_fakecalls_0422),(Citation: cyble_chameleon_0423),(Citation: lookout_hornbill_sunbird_0221),(Citation: Talos GPlayed),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout Uyghur Campaign),(Citation: Cybereason FakeSpy),(Citation: Zscaler TikTok Spyware),</t>
-  </si>
-  <si>
-    <t>(Citation: Palo Alto HenBox),(Citation: Lookout Uyghur Campaign),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Google Bread),(Citation: WhiteOps TERRACOTTA),(Citation: Securelist Asacub),</t>
+    <t>(Citation: Sophos Red Alert 2.0),(Citation: CheckPoint Agent Smith),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: MoustachedBouncer ESET August 2023),(Citation: CrowdStrike-Android),(Citation: Lookout Uyghur Campaign),(Citation: Proofpoint-Droidjack),(Citation: Lookout FrozenCell),(Citation: Talos GPlayed),(Citation: Cybereason EventBot),(Citation: cyble_chameleon_0423),(Citation: lookout_hornbill_sunbird_0221),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: SecureList - ViceLeaker 2019),(Citation: Palo Alto HenBox),(Citation: Lookout-Dendroid),(Citation: Bitdefender Mandrake),(Citation: ThreatFabric Ginp),(Citation: lookout_bouldspy_0423),(Citation: CheckPoint SimBad 2019),(Citation: Microsoft MalLockerB),(Citation: Threat Fabric Exobot),(Citation: Securelist Asacub),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Talos-WolfRAT),(Citation: Zscaler TikTok Spyware),(Citation: Lookout ViperRAT),(Citation: Cofense Anubis),(Citation: Trend Micro Anubis),(Citation: Forbes Cerberus),(Citation: Cybereason FakeSpy),(Citation: kaspersky_fakecalls_0422),</t>
+  </si>
+  <si>
+    <t>(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Palo Alto HenBox),(Citation: Lookout Uyghur Campaign),(Citation: Google Bread),(Citation: WhiteOps TERRACOTTA),(Citation: Securelist Asacub),</t>
   </si>
   <si>
     <t>(Citation: threatfabric_sova_0921),</t>
   </si>
   <si>
-    <t>(Citation: cyble_chameleon_0423),(Citation: CheckPoint Cerberus),(Citation: SWB Exodus March 2019),(Citation: Sophos Red Alert 2.0),(Citation: Volexity Insomnia),(Citation: Bitdefender Mandrake),(Citation: FortiGuard-FlexiSpy),</t>
-  </si>
-  <si>
-    <t>(Citation: SecureList DVMap June 2017),(Citation: Sophos Red Alert 2.0),(Citation: Volexity Insomnia),(Citation: securelist rotexy 2018),(Citation: TrendMicro-XLoader),(Citation: Google Bread),(Citation: proofpoint_flubot_0421),(Citation: ThreatFabric Ginp),(Citation: cyble_drinik_1022),(Citation: Cybereason EventBot),(Citation: Google Security Zen),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: SecurityIntelligence TrickMo),(Citation: Threat Fabric Cerberus),(Citation: Microsoft MalLockerB),(Citation: Securelist Asacub),(Citation: Check Point-Joker),(Citation: FortiGuard-FlexiSpy),(Citation: Talos-WolfRAT),(Citation: trendmicro_tianyspy_0122),(Citation: TrendMicro-Obad),(Citation: BlackBerry Bahamut),(Citation: Talos Gustuff Apr 2019),(Citation: Palo Alto HenBox),(Citation: Bitdefender Mandrake),(Citation: Lookout Dark Caracal Jan 2018),(Citation: WhiteOps TERRACOTTA),(Citation: lookout_abstractemu_1021),(Citation: Talos GPlayed),(Citation: nccgroup_sharkbot_0322),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout Uyghur Campaign),(Citation: Cybereason FakeSpy),(Citation: CheckPoint-Charger),(Citation: PaloAlto-WireLurker),(Citation: Lookout-BrainTest),(Citation: Lookout-Monokle),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-StealthMango),(Citation: securelist rotexy 2018),(Citation: nccgroup_sharkbot_0322),(Citation: SecureList BusyGasper),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout Uyghur Campaign),(Citation: TrendMicro-RCSAndroid),(Citation: Kaspersky-Skygofree),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout Desert Scorpion),(Citation: Kaspersky-WUC),(Citation: lookout_bouldspy_0423),(Citation: Lookout-Monokle),(Citation: Lookout-PegasusAndroid),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-Pegasus),</t>
-  </si>
-  <si>
-    <t>(Citation: bitdefender_flubot_0524),(Citation: cyble_chameleon_0423),(Citation: TrendMicro-Obad),(Citation: Bitdefender Mandrake),(Citation: threatfabric_sova_0921),</t>
-  </si>
-  <si>
-    <t>(Citation: securelist rotexy 2018),(Citation: nccgroup_sharkbot_0322),(Citation: CheckPoint Agent Smith),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Palo Alto HenBox),(Citation: paloalto_yispecter_1015),(Citation: Zimperium z9),(Citation: Talos-WolfRAT),</t>
+    <t>(Citation: Bitdefender Mandrake),(Citation: Sophos Red Alert 2.0),(Citation: FortiGuard-FlexiSpy),(Citation: SWB Exodus March 2019),(Citation: CheckPoint Cerberus),(Citation: cyble_chameleon_0423),(Citation: Volexity Insomnia),</t>
+  </si>
+  <si>
+    <t>(Citation: Sophos Red Alert 2.0),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout Uyghur Campaign),(Citation: Talos GPlayed),(Citation: Cybereason EventBot),(Citation: PaloAlto-WireLurker),(Citation: proofpoint_flubot_0421),(Citation: Lookout-Monokle),(Citation: TrendMicro-XLoader),(Citation: securelist rotexy 2018),(Citation: Check Point-Joker),(Citation: SecurityIntelligence TrickMo),(Citation: Google Security Zen),(Citation: Palo Alto HenBox),(Citation: Bitdefender Mandrake),(Citation: ThreatFabric Ginp),(Citation: Threat Fabric Cerberus),(Citation: SecureList DVMap June 2017),(Citation: cyble_drinik_1022),(Citation: Lookout-BrainTest),(Citation: WhiteOps TERRACOTTA),(Citation: Talos Gustuff Apr 2019),(Citation: Microsoft MalLockerB),(Citation: trendmicro_tianyspy_0122),(Citation: Securelist Asacub),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Talos-WolfRAT),(Citation: FortiGuard-FlexiSpy),(Citation: lookout_abstractemu_1021),(Citation: CheckPoint-Charger),(Citation: BlackBerry Bahamut),(Citation: Google Bread),(Citation: TrendMicro-Obad),(Citation: Cybereason FakeSpy),(Citation: Volexity Insomnia),(Citation: nccgroup_sharkbot_0322),</t>
+  </si>
+  <si>
+    <t>(Citation: PaloAlto-SpyDealer),(Citation: Kaspersky-Skygofree),(Citation: SecureList BusyGasper),(Citation: lookout_bouldspy_0423),(Citation: Lookout-Monokle),(Citation: Lookout-PegasusAndroid),(Citation: Lookout Uyghur Campaign),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout Desert Scorpion),(Citation: Kaspersky-WUC),(Citation: securelist rotexy 2018),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout-StealthMango),(Citation: Lookout-Pegasus),(Citation: SecurityIntelligence TrickMo),(Citation: nccgroup_sharkbot_0322),</t>
+  </si>
+  <si>
+    <t>(Citation: Bitdefender Mandrake),(Citation: bitdefender_flubot_0524),(Citation: TrendMicro-Obad),(Citation: threatfabric_sova_0921),(Citation: cyble_chameleon_0423),</t>
+  </si>
+  <si>
+    <t>(Citation: Palo Alto HenBox),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Talos-WolfRAT),(Citation: CheckPoint Agent Smith),(Citation: Zimperium z9),(Citation: securelist rotexy 2018),(Citation: paloalto_yispecter_1015),(Citation: nccgroup_sharkbot_0322),</t>
   </si>
   <si>
     <t>(Citation: proofpoint_flubot_0421),(Citation: Threat Fabric Exobot),</t>
   </si>
   <si>
-    <t>(Citation: Google Security Zen),(Citation: Kaspersky Triada March 2016),(Citation: Google Project Zero Insomnia),(Citation: Google Triada June 2019),</t>
-  </si>
-  <si>
-    <t>(Citation: PaloAlto-DualToy),(Citation: PaloAlto-WireLurker),(Citation: Elcomsoft-iOSRestricted)</t>
-  </si>
-  <si>
-    <t>(Citation: Sophos Red Alert 2.0),(Citation: securelist rotexy 2018),(Citation: proofpoint_flubot_0421),(Citation: Cofense Anubis),(Citation: Bleeipng Computer Escobar),(Citation: ThreatFabric Ginp),(Citation: cyble_drinik_1022),(Citation: Lookout-StealthMango),(Citation: cloudmark_tanglebot_0921),(Citation: SecurityIntelligence TrickMo),(Citation: Threat Fabric Cerberus),(Citation: Lookout Desert Scorpion),(Citation: Threat Fabric Exobot),(Citation: Securelist Asacub),(Citation: TrendMicro Coronavirus Updates),(Citation: Talos-WolfRAT),(Citation: bitdefender_flubot_0524),(Citation: Bitdefender Mandrake),(Citation: Lookout-Dendroid),(Citation: WhiteOps TERRACOTTA),(Citation: Talos GPlayed),(Citation: nccgroup_sharkbot_0322),(Citation: SecureList BusyGasper),(Citation: Lookout Uyghur Campaign),(Citation: Cybereason FakeSpy),(Citation: Zscaler TikTok Spyware),(Citation: threatfabric_sova_0921),(Citation: SMS KitKat)</t>
-  </si>
-  <si>
-    <t>(Citation: Sophos Red Alert 2.0),(Citation: securelist rotexy 2018),(Citation: FlexiSpy-Features),(Citation: Symantec GoldenCup),(Citation: Lookout ViperRAT),(Citation: TrendMicro-XLoader),(Citation: Google Bread),(Citation: proofpoint_flubot_0421),(Citation: Kaspersky Triada March 2016),(Citation: Bleeipng Computer Escobar),(Citation: PaloAlto-SpyDealer),(Citation: ThreatFabric Ginp),(Citation: NYTimes-BackDoor),(Citation: cyble_drinik_1022),(Citation: Lookout-StealthMango),(Citation: SecureList - ViceLeaker 2019),(Citation: Cybereason EventBot),(Citation: cloudmark_tanglebot_0921),(Citation: SecurityIntelligence TrickMo),(Citation: Threat Fabric Cerberus),(Citation: Lookout Desert Scorpion),(Citation: Threat Fabric Exobot),(Citation: Kaspersky-WUC),(Citation: Zscaler-SuperMarioRun),(Citation: Securelist Asacub),(Citation: TrendMicro Coronavirus Updates),(Citation: Google Project Zero Insomnia),(Citation: Talos-WolfRAT),(Citation: PaloAlto-Xbot),(Citation: Lookout FrozenCell),(Citation: BlackBerry Bahamut),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Palo Alto HenBox),(Citation: Bitdefender Mandrake),(Citation: CyberMerchants-FlexiSpy),(Citation: Tripwire-MazarBOT),(Citation: Lookout-Dendroid),(Citation: lookout_bouldspy_0423),(Citation: lookout_abstractemu_1021),(Citation: kaspersky_fakecalls_0422),(Citation: Lookout-EnterpriseApps),(Citation: TrendMicro-RCSAndroid),(Citation: Zscaler-SpyNote),(Citation: Lookout-Pegasus),(Citation: FireEye-RuMMS),(Citation: cyble_chameleon_0423),(Citation: Talos GPlayed),(Citation: nccgroup_sharkbot_0322),(Citation: SecureList BusyGasper),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout Uyghur Campaign),(Citation: Kaspersky Riltok June 2019),(Citation: Cybereason FakeSpy),(Citation: threatfabric_sova_0921),(Citation: Zscaler TikTok Spyware),(Citation: Cylance Dust Storm),(Citation: SWB Exodus March 2019),</t>
+    <t>(Citation: Google Project Zero Insomnia),(Citation: Kaspersky Triada March 2016),(Citation: Google Triada June 2019),(Citation: Google Security Zen),</t>
+  </si>
+  <si>
+    <t>(Citation: PaloAlto-WireLurker),(Citation: PaloAlto-DualToy),(Citation: Elcomsoft-iOSRestricted)</t>
+  </si>
+  <si>
+    <t>(Citation: Sophos Red Alert 2.0),(Citation: SecureList BusyGasper),(Citation: Lookout Uyghur Campaign),(Citation: Talos GPlayed),(Citation: proofpoint_flubot_0421),(Citation: securelist rotexy 2018),(Citation: cloudmark_tanglebot_0921),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout-Dendroid),(Citation: Bitdefender Mandrake),(Citation: ThreatFabric Ginp),(Citation: Threat Fabric Cerberus),(Citation: cyble_drinik_1022),(Citation: Lookout Desert Scorpion),(Citation: bitdefender_flubot_0524),(Citation: WhiteOps TERRACOTTA),(Citation: Lookout-StealthMango),(Citation: Threat Fabric Exobot),(Citation: Securelist Asacub),(Citation: Talos-WolfRAT),(Citation: TrendMicro Coronavirus Updates),(Citation: Zscaler TikTok Spyware),(Citation: Cofense Anubis),(Citation: Bleeipng Computer Escobar),(Citation: threatfabric_sova_0921),(Citation: Cybereason FakeSpy),(Citation: nccgroup_sharkbot_0322),(Citation: SMS KitKat)</t>
+  </si>
+  <si>
+    <t>(Citation: Sophos Red Alert 2.0),(Citation: SecureList BusyGasper),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout Uyghur Campaign),(Citation: Tripwire-MazarBOT),(Citation: Lookout FrozenCell),(Citation: TrendMicro-RCSAndroid),(Citation: Talos GPlayed),(Citation: cyble_chameleon_0423),(Citation: Cybereason EventBot),(Citation: proofpoint_flubot_0421),(Citation: Google Project Zero Insomnia),(Citation: TrendMicro-XLoader),(Citation: Kaspersky-WUC),(Citation: securelist rotexy 2018),(Citation: SecureList - ViceLeaker 2019),(Citation: cloudmark_tanglebot_0921),(Citation: NYTimes-BackDoor),(Citation: FireEye-RuMMS),(Citation: SecurityIntelligence TrickMo),(Citation: Palo Alto HenBox),(Citation: Lookout-Dendroid),(Citation: Bitdefender Mandrake),(Citation: Lookout-EnterpriseApps),(Citation: ThreatFabric Ginp),(Citation: Threat Fabric Cerberus),(Citation: lookout_bouldspy_0423),(Citation: PaloAlto-SpyDealer),(Citation: cyble_drinik_1022),(Citation: Lookout Desert Scorpion),(Citation: FlexiSpy-Features),(Citation: Zscaler-SuperMarioRun),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout-StealthMango),(Citation: Kaspersky Triada March 2016),(Citation: Threat Fabric Exobot),(Citation: Securelist Asacub),(Citation: PaloAlto-Xbot),(Citation: Kaspersky Riltok June 2019),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Talos-WolfRAT),(Citation: Symantec GoldenCup),(Citation: SWB Exodus March 2019),(Citation: lookout_abstractemu_1021),(Citation: TrendMicro Coronavirus Updates),(Citation: CyberMerchants-FlexiSpy),(Citation: BlackBerry Bahamut),(Citation: Zscaler TikTok Spyware),(Citation: Lookout ViperRAT),(Citation: Google Bread),(Citation: Bleeipng Computer Escobar),(Citation: threatfabric_sova_0921),(Citation: Cybereason FakeSpy),(Citation: Zscaler-SpyNote),(Citation: kaspersky_fakecalls_0422),(Citation: Lookout-Pegasus),(Citation: Cylance Dust Storm),(Citation: nccgroup_sharkbot_0322),</t>
   </si>
   <si>
     <t>(Citation: WhiteOps TERRACOTTA),(Citation: Zscaler TikTok Spyware),(Citation: Talos GPlayed),</t>
   </si>
   <si>
-    <t>(Citation: FlexiSpy-Features),(Citation: ESET DEFENSOR ID),(Citation: Cofense Anubis),(Citation: PaloAlto-SpyDealer),(Citation: ThreatFabric Ginp),(Citation: cyble_drinik_1022),(Citation: Cybereason EventBot),(Citation: cloudmark_tanglebot_0921),(Citation: cleafy_sova_1122),(Citation: SecurityIntelligence TrickMo),(Citation: Talos-WolfRAT),(Citation: Bitdefender Mandrake),(Citation: lookout_bouldspy_0423),(Citation: lookout_hornbill_sunbird_0221),(Citation: SecureList BusyGasper),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout Uyghur Campaign),(Citation: Zscaler TikTok Spyware),(Citation: Lookout-Monokle),(Citation: SWB Exodus March 2019),(Citation: Nightwatch screencap April 2016)</t>
-  </si>
-  <si>
-    <t>(Citation: Talos Gustuff Apr 2019),(Citation: Threat Fabric Exobot),(Citation: Android Package Visibility)</t>
-  </si>
-  <si>
-    <t>(Citation: Sophos Red Alert 2.0),(Citation: securelist rotexy 2018),(Citation: FlexiSpy-Features),(Citation: Symantec GoldenCup),(Citation: ESET DEFENSOR ID),(Citation: Cofense Anubis),(Citation: ThreatFabric Ginp),(Citation: Lookout-StealthMango),(Citation: SecureList - ViceLeaker 2019),(Citation: Cybereason EventBot),(Citation: cloudmark_tanglebot_0921),(Citation: CheckPoint Agent Smith),(Citation: paloalto_yispecter_1015),(Citation: cleafy_sova_1122),(Citation: SecurityIntelligence TrickMo),(Citation: Threat Fabric Cerberus),(Citation: Lookout Desert Scorpion),(Citation: Google Project Zero Insomnia),(Citation: Talos-WolfRAT),(Citation: Bitdefender Mandrake),(Citation: Palo Alto HenBox),(Citation: Lookout Dark Caracal Jan 2018),(Citation: lookout_bouldspy_0423),(Citation: lookout_abstractemu_1021),(Citation: Lookout-PegasusAndroid),(Citation: WhiteOps TERRACOTTA),(Citation: cyble_chameleon_0423),(Citation: lookout_hornbill_sunbird_0221),(Citation: Talos GPlayed),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Google Triada June 2019),(Citation: Lookout Uyghur Campaign),(Citation: Kaspersky Riltok June 2019),(Citation: Cybereason FakeSpy),(Citation: Zscaler TikTok Spyware),(Citation: Lookout-Monokle),(Citation: SWB Exodus March 2019),(Citation: Android Package Visibility)</t>
+    <t>(Citation: SecureList BusyGasper),(Citation: Lookout Uyghur Campaign),(Citation: Cybereason EventBot),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout-Monokle),(Citation: cloudmark_tanglebot_0921),(Citation: SecurityIntelligence TrickMo),(Citation: Bitdefender Mandrake),(Citation: PaloAlto-SpyDealer),(Citation: ThreatFabric Ginp),(Citation: lookout_bouldspy_0423),(Citation: cyble_drinik_1022),(Citation: FlexiSpy-Features),(Citation: ESET DEFENSOR ID),(Citation: Trend Micro Bouncing Golf 2019),(Citation: cleafy_sova_1122),(Citation: Talos-WolfRAT),(Citation: SWB Exodus March 2019),(Citation: Zscaler TikTok Spyware),(Citation: Cofense Anubis),(Citation: Nightwatch screencap April 2016)</t>
+  </si>
+  <si>
+    <t>(Citation: Threat Fabric Exobot),(Citation: Talos Gustuff Apr 2019),(Citation: Android Package Visibility)</t>
+  </si>
+  <si>
+    <t>(Citation: Sophos Red Alert 2.0),(Citation: CheckPoint Agent Smith),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout Uyghur Campaign),(Citation: Talos GPlayed),(Citation: Cybereason EventBot),(Citation: cyble_chameleon_0423),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout-Monokle),(Citation: Google Project Zero Insomnia),(Citation: SecureList - ViceLeaker 2019),(Citation: securelist rotexy 2018),(Citation: cloudmark_tanglebot_0921),(Citation: SecurityIntelligence TrickMo),(Citation: Palo Alto HenBox),(Citation: Bitdefender Mandrake),(Citation: ThreatFabric Ginp),(Citation: Threat Fabric Cerberus),(Citation: lookout_bouldspy_0423),(Citation: Lookout Desert Scorpion),(Citation: FlexiSpy-Features),(Citation: WhiteOps TERRACOTTA),(Citation: ESET DEFENSOR ID),(Citation: paloalto_yispecter_1015),(Citation: Lookout-StealthMango),(Citation: Google Triada June 2019),(Citation: Kaspersky Riltok June 2019),(Citation: Trend Micro Bouncing Golf 2019),(Citation: cleafy_sova_1122),(Citation: Symantec GoldenCup),(Citation: Talos-WolfRAT),(Citation: SWB Exodus March 2019),(Citation: lookout_abstractemu_1021),(Citation: Lookout-PegasusAndroid),(Citation: Zscaler TikTok Spyware),(Citation: Cofense Anubis),(Citation: Cybereason FakeSpy),(Citation: Android Package Visibility)</t>
   </si>
   <si>
     <t>(Citation: Google Bread),(Citation: threatfabric_sova_0921),(Citation: Talos Gustuff Apr 2019),</t>
   </si>
   <si>
-    <t>,(Citation: iOS Universal Links),(Citation: IETF-PKCE),(Citation: Trend Micro iOS URL Hijacking),(Citation: Android App Links)</t>
+    <t>,(Citation: Trend Micro iOS URL Hijacking),(Citation: iOS Universal Links),(Citation: Android App Links),(Citation: IETF-PKCE)</t>
   </si>
   <si>
     <t>(Citation: CheckPoint Agent Smith),</t>
   </si>
   <si>
-    <t>(Citation: Trend Micro FlyTrap),(Citation: Bleeipng Computer Escobar),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-StealthMango),(Citation: paloalto_yispecter_1015),(Citation: cleafy_sova_1122),(Citation: Lookout Desert Scorpion),(Citation: Zimperium FlyTrap),(Citation: FortiGuard-FlexiSpy),(Citation: Lookout FrozenCell),(Citation: Bitdefender Mandrake),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Kaspersky-Skygofree),(Citation: TrendMicro-RCSAndroid),(Citation: lookout_bouldspy_0423),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-Pegasus),(Citation: lookout_hornbill_sunbird_0221),(Citation: SecureList BusyGasper),(Citation: Lookout Uyghur Campaign),(Citation: Cybereason FakeSpy),(Citation: threatfabric_sova_0921),(Citation: SWB Exodus March 2019),</t>
-  </si>
-  <si>
-    <t>,(Citation: Symantec-iOSProfile2),(Citation: Android-TrustedCA)</t>
-  </si>
-  <si>
-    <t>(Citation: securelist rotexy 2018),(Citation: FlexiSpy-Features),(Citation: ESET-Twitoor),(Citation: CheckPoint SimBad 2019),(Citation: ThreatFabric Ginp),(Citation: cyble_drinik_1022),(Citation: Group IB Gustuff Mar 2019),(Citation: CheckPoint Agent Smith),(Citation: paloalto_yispecter_1015),(Citation: Threat Fabric Cerberus),(Citation: Lookout Desert Scorpion),(Citation: FortiGuard-FlexiSpy),(Citation: Bitdefender Mandrake),(Citation: Bitdefender - Triout 2018),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: SecureList BusyGasper),(Citation: Lookout Uyghur Campaign),(Citation: Cybereason FakeSpy),(Citation: Zscaler TikTok Spyware),(Citation: threatfabric_sova_0921),(Citation: LauncherApps getActivityList),(Citation: Android 10 Limitations to Hiding App Icons)</t>
-  </si>
-  <si>
-    <t>(Citation: Cybereason EventBot),(Citation: BlackBerry Bahamut),(Citation: securelist rotexy 2018),(Citation: nccgroup_sharkbot_0322),</t>
-  </si>
-  <si>
-    <t>(Citation: cyble_chameleon_0423),(Citation: Trend Micro Anubis),(Citation: securelist rotexy 2018),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: BlackBerry Bahamut),(Citation: Palo Alto HenBox),(Citation: Bitdefender Mandrake),(Citation: Cybereason FakeSpy),(Citation: SecurityIntelligence TrickMo),(Citation: Threat Fabric Cerberus),(Citation: Talos-WolfRAT),(Citation: Lookout-Dendroid),(Citation: WhiteOps TERRACOTTA),(Citation: lookout_abstractemu_1021),(Citation: ThreatFabric Ginp),</t>
-  </si>
-  <si>
-    <t>(Citation: SecureList DVMap June 2017),(Citation: securelist rotexy 2018),(Citation: Symantec GoldenCup),(Citation: Lookout ViperRAT),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Cofense Anubis),(Citation: CheckPoint Cerberus),(Citation: SecureList - ViceLeaker 2019),(Citation: Cybereason EventBot),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: paloalto_yispecter_1015),(Citation: SecurityIntelligence TrickMo),(Citation: Threat Fabric Cerberus),(Citation: Lookout Desert Scorpion),(Citation: Threat Fabric Exobot),(Citation: Kaspersky-WUC),(Citation: Securelist Asacub),(Citation: TrendMicro Coronavirus Updates),(Citation: Google Project Zero Insomnia),(Citation: Lookout eSurv),(Citation: TrendMicro-Anserver2),(Citation: Lookout FrozenCell),(Citation: trendmicro_tianyspy_0122),(Citation: Xiao-KeyRaider),(Citation: BlackBerry Bahamut),(Citation: Talos Gustuff Apr 2019),(Citation: Palo Alto HenBox),(Citation: Bitdefender Mandrake),(Citation: Lookout Dark Caracal Jan 2018),(Citation: lookout_bouldspy_0423),(Citation: lookout_abstractemu_1021),(Citation: Lookout-Pegasus),(Citation: FireEye-RuMMS),(Citation: cyble_chameleon_0423),(Citation: lookout_hornbill_sunbird_0221),(Citation: Talos GPlayed),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Wandera-RedDrop),(Citation: Lookout Uyghur Campaign),(Citation: Kaspersky Riltok June 2019),(Citation: Cybereason FakeSpy),(Citation: threatfabric_sova_0921),(Citation: Zscaler TikTok Spyware),(Citation: Lookout-Monokle),</t>
-  </si>
-  <si>
-    <t>(Citation: securelist rotexy 2018),(Citation: Trend Micro FlyTrap),(Citation: Symantec GoldenCup),(Citation: Lookout ViperRAT),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Google Bread),(Citation: PaloAlto-DualToy),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-StealthMango),(Citation: Cybereason EventBot),(Citation: paloalto_yispecter_1015),(Citation: SecurityIntelligence TrickMo),(Citation: Threat Fabric Exobot),(Citation: Securelist Asacub),(Citation: TrendMicro Coronavirus Updates),(Citation: Google Project Zero Insomnia),(Citation: Talos-WolfRAT),(Citation: TrendMicro-Anserver2),(Citation: Lookout FrozenCell),(Citation: trendmicro_tianyspy_0122),(Citation: Talos Gustuff Apr 2019),(Citation: lookout_bouldspy_0423),(Citation: lookout_abstractemu_1021),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-EnterpriseApps),(Citation: WhiteOps TERRACOTTA),(Citation: FireEye-RuMMS),(Citation: lookout_hornbill_sunbird_0221),(Citation: Talos GPlayed),(Citation: Wandera-RedDrop),(Citation: Lookout Uyghur Campaign),(Citation: Kaspersky Riltok June 2019),(Citation: Cybereason FakeSpy),(Citation: Lookout-Monokle),(Citation: SWB Exodus March 2019),(Citation: TelephonyManager)</t>
-  </si>
-  <si>
-    <t>(Citation: FlexiSpy-Features),(Citation: Lookout ViperRAT),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Cybereason FakeSpy),(Citation: Lookout-Monokle),(Citation: SWB Exodus March 2019),(Citation: Lookout-Pegasus),</t>
-  </si>
-  <si>
-    <t>(Citation: Google Security Zen),(Citation: FortiGuard-FlexiSpy),(Citation: SecureList DVMap June 2017),(Citation: Android-VerifiedBoot)</t>
+    <t>(Citation: Kaspersky-Skygofree),(Citation: SecureList BusyGasper),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout Uyghur Campaign),(Citation: Lookout FrozenCell),(Citation: TrendMicro-RCSAndroid),(Citation: Trend Micro FlyTrap),(Citation: lookout_hornbill_sunbird_0221),(Citation: Bitdefender Mandrake),(Citation: PaloAlto-SpyDealer),(Citation: lookout_bouldspy_0423),(Citation: Lookout Desert Scorpion),(Citation: paloalto_yispecter_1015),(Citation: Lookout-StealthMango),(Citation: cleafy_sova_1122),(Citation: SWB Exodus March 2019),(Citation: FortiGuard-FlexiSpy),(Citation: Lookout-PegasusAndroid),(Citation: Zimperium FlyTrap),(Citation: Bleeipng Computer Escobar),(Citation: threatfabric_sova_0921),(Citation: Cybereason FakeSpy),(Citation: Lookout-Pegasus),</t>
+  </si>
+  <si>
+    <t>,(Citation: Android-TrustedCA),(Citation: Symantec-iOSProfile2)</t>
+  </si>
+  <si>
+    <t>(Citation: CheckPoint Agent Smith),(Citation: SecureList BusyGasper),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Lookout Uyghur Campaign),(Citation: Group IB Gustuff Mar 2019),(Citation: securelist rotexy 2018),(Citation: ESET-Twitoor),(Citation: Bitdefender Mandrake),(Citation: ThreatFabric Ginp),(Citation: Threat Fabric Cerberus),(Citation: CheckPoint SimBad 2019),(Citation: cyble_drinik_1022),(Citation: Bitdefender - Triout 2018),(Citation: Lookout Desert Scorpion),(Citation: FlexiSpy-Features),(Citation: paloalto_yispecter_1015),(Citation: FortiGuard-FlexiSpy),(Citation: Zscaler TikTok Spyware),(Citation: threatfabric_sova_0921),(Citation: Cybereason FakeSpy),(Citation: LauncherApps getActivityList),(Citation: Android 10 Limitations to Hiding App Icons)</t>
+  </si>
+  <si>
+    <t>(Citation: securelist rotexy 2018),(Citation: Cybereason EventBot),(Citation: BlackBerry Bahamut),(Citation: nccgroup_sharkbot_0322),</t>
+  </si>
+  <si>
+    <t>(Citation: Palo Alto HenBox),(Citation: Talos-WolfRAT),(Citation: Lookout-Dendroid),(Citation: Bitdefender Mandrake),(Citation: ThreatFabric Ginp),(Citation: Threat Fabric Cerberus),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: lookout_abstractemu_1021),(Citation: SecurityIntelligence TrickMo),(Citation: BlackBerry Bahamut),(Citation: Trend Micro Anubis),(Citation: WhiteOps TERRACOTTA),(Citation: securelist rotexy 2018),(Citation: Cybereason FakeSpy),(Citation: cyble_chameleon_0423),</t>
+  </si>
+  <si>
+    <t>(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout Uyghur Campaign),(Citation: Lookout FrozenCell),(Citation: Talos GPlayed),(Citation: Cybereason EventBot),(Citation: cyble_chameleon_0423),(Citation: lookout_hornbill_sunbird_0221),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Xiao-KeyRaider),(Citation: TrendMicro-Anserver2),(Citation: Wandera-RedDrop),(Citation: Lookout-Monokle),(Citation: Google Project Zero Insomnia),(Citation: Kaspersky-WUC),(Citation: securelist rotexy 2018),(Citation: SecureList - ViceLeaker 2019),(Citation: FireEye-RuMMS),(Citation: SecurityIntelligence TrickMo),(Citation: Palo Alto HenBox),(Citation: Bitdefender Mandrake),(Citation: Threat Fabric Cerberus),(Citation: lookout_bouldspy_0423),(Citation: SecureList DVMap June 2017),(Citation: Lookout eSurv),(Citation: Lookout Desert Scorpion),(Citation: Talos Gustuff Apr 2019),(Citation: paloalto_yispecter_1015),(Citation: trendmicro_tianyspy_0122),(Citation: Threat Fabric Exobot),(Citation: Securelist Asacub),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Kaspersky Riltok June 2019),(Citation: Symantec GoldenCup),(Citation: CheckPoint Cerberus),(Citation: lookout_abstractemu_1021),(Citation: TrendMicro Coronavirus Updates),(Citation: BlackBerry Bahamut),(Citation: Zscaler TikTok Spyware),(Citation: Cofense Anubis),(Citation: Lookout ViperRAT),(Citation: threatfabric_sova_0921),(Citation: Cybereason FakeSpy),(Citation: Lookout-Pegasus),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout Uyghur Campaign),(Citation: PaloAlto-DualToy),(Citation: Lookout FrozenCell),(Citation: Trend Micro FlyTrap),(Citation: Talos GPlayed),(Citation: lookout_hornbill_sunbird_0221),(Citation: Cybereason EventBot),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: TrendMicro-Anserver2),(Citation: Wandera-RedDrop),(Citation: Lookout-Monokle),(Citation: Google Project Zero Insomnia),(Citation: securelist rotexy 2018),(Citation: FireEye-RuMMS),(Citation: SecurityIntelligence TrickMo),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-EnterpriseApps),(Citation: lookout_bouldspy_0423),(Citation: WhiteOps TERRACOTTA),(Citation: Talos Gustuff Apr 2019),(Citation: paloalto_yispecter_1015),(Citation: trendmicro_tianyspy_0122),(Citation: Lookout-StealthMango),(Citation: Threat Fabric Exobot),(Citation: Securelist Asacub),(Citation: Kaspersky Riltok June 2019),(Citation: Talos-WolfRAT),(Citation: Symantec GoldenCup),(Citation: SWB Exodus March 2019),(Citation: lookout_abstractemu_1021),(Citation: Lookout-PegasusAndroid),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout ViperRAT),(Citation: Google Bread),(Citation: Cybereason FakeSpy),(Citation: TelephonyManager)</t>
+  </si>
+  <si>
+    <t>(Citation: SWB Exodus March 2019),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-Monokle),(Citation: Lookout ViperRAT),(Citation: FlexiSpy-Features),(Citation: Cybereason FakeSpy),(Citation: Lookout-Pegasus),</t>
+  </si>
+  <si>
+    <t>(Citation: SecureList DVMap June 2017),(Citation: FortiGuard-FlexiSpy),(Citation: Google Security Zen),(Citation: Android-VerifiedBoot)</t>
   </si>
   <si>
     <t>(Citation: threatfabric_sova_0921),(Citation: Android 10 Privacy Changes)</t>
   </si>
   <si>
-    <t>(Citation: nccgroup_sharkbot_0322),(Citation: SecurityIntelligence TrickMo),(Citation: Threat Fabric Cerberus),(Citation: threatfabric_sova_0921),(Citation: Bleeipng Computer Escobar),</t>
-  </si>
-  <si>
-    <t>(Citation: lookout_hornbill_sunbird_0221),(Citation: SecureList BusyGasper),(Citation: Palo Alto HenBox),(Citation: Lookout Uyghur Campaign),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Zscaler TikTok Spyware),(Citation: lookout_abstractemu_1021),</t>
-  </si>
-  <si>
-    <t>(Citation: proofpoint_flubot_0421),(Citation: SecureList BusyGasper),(Citation: lookout_hornbill_sunbird_0221),</t>
-  </si>
-  <si>
-    <t>(Citation: Symantec GoldenCup),(Citation: Lookout ViperRAT),(Citation: Bleeipng Computer Escobar),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-StealthMango),(Citation: SecureList - ViceLeaker 2019),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout Desert Scorpion),(Citation: Zscaler-SuperMarioRun),(Citation: TrendMicro Coronavirus Updates),(Citation: Talos-WolfRAT),(Citation: BlackBerry Bahamut),(Citation: Palo Alto HenBox),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Kaspersky-Skygofree),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout-Dendroid),(Citation: lookout_bouldspy_0423),(Citation: lookout_abstractemu_1021),(Citation: kaspersky_fakecalls_0422),(Citation: Lookout-PegasusAndroid),(Citation: TrendMicro-RCSAndroid),(Citation: lookout_hornbill_sunbird_0221),(Citation: SecureList BusyGasper),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout Uyghur Campaign),(Citation: Zscaler TikTok Spyware),(Citation: Lookout-Monokle),(Citation: SWB Exodus March 2019),(Citation: Android Capture Sensor 2019)</t>
+    <t>(Citation: Threat Fabric Cerberus),(Citation: Bleeipng Computer Escobar),(Citation: threatfabric_sova_0921),(Citation: SecurityIntelligence TrickMo),(Citation: nccgroup_sharkbot_0322),</t>
+  </si>
+  <si>
+    <t>(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Palo Alto HenBox),(Citation: SecureList BusyGasper),(Citation: lookout_abstractemu_1021),(Citation: Lookout Uyghur Campaign),(Citation: Zscaler TikTok Spyware),(Citation: lookout_hornbill_sunbird_0221),</t>
+  </si>
+  <si>
+    <t>(Citation: proofpoint_flubot_0421),(Citation: lookout_hornbill_sunbird_0221),(Citation: SecureList BusyGasper),</t>
+  </si>
+  <si>
+    <t>(Citation: Kaspersky-Skygofree),(Citation: SecureList BusyGasper),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout Uyghur Campaign),(Citation: TrendMicro-RCSAndroid),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout-Monokle),(Citation: SecureList - ViceLeaker 2019),(Citation: cloudmark_tanglebot_0921),(Citation: Palo Alto HenBox),(Citation: Lookout-Dendroid),(Citation: PaloAlto-SpyDealer),(Citation: lookout_bouldspy_0423),(Citation: Lookout Desert Scorpion),(Citation: Zscaler-SuperMarioRun),(Citation: Lookout-StealthMango),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Talos-WolfRAT),(Citation: Symantec GoldenCup),(Citation: SWB Exodus March 2019),(Citation: lookout_abstractemu_1021),(Citation: Lookout-PegasusAndroid),(Citation: TrendMicro Coronavirus Updates),(Citation: CyberMerchants-FlexiSpy),(Citation: BlackBerry Bahamut),(Citation: Zscaler TikTok Spyware),(Citation: Lookout ViperRAT),(Citation: Bleeipng Computer Escobar),(Citation: kaspersky_fakecalls_0422),(Citation: Android Capture Sensor 2019)</t>
   </si>
   <si>
     <t>(Citation: lookout_abstractemu_1021),</t>
   </si>
   <si>
-    <t>(Citation: Sophos Red Alert 2.0),(Citation: securelist rotexy 2018),(Citation: Volexity Insomnia),(Citation: Symantec GoldenCup),(Citation: ESET DEFENSOR ID),(Citation: Google Bread),(Citation: proofpoint_flubot_0421),(Citation: Kaspersky-MobileMalware),(Citation: CheckPoint Cerberus),(Citation: SecureList - ViceLeaker 2019),(Citation: Cybereason EventBot),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: paloalto_yispecter_1015),(Citation: SecurityIntelligence TrickMo),(Citation: Threat Fabric Exobot),(Citation: Kaspersky-WUC),(Citation: Zimperium FlyTrap),(Citation: Securelist Asacub),(Citation: TrendMicro Coronavirus Updates),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Kaspersky-Skygofree),(Citation: lookout_bouldspy_0423),(Citation: lookout_abstractemu_1021),(Citation: FireEye-RuMMS),(Citation: cyble_chameleon_0423),(Citation: Bitdefender - Triout 2018),(Citation: lookout_hornbill_sunbird_0221),(Citation: Talos GPlayed),(Citation: nccgroup_sharkbot_0322),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Wandera-RedDrop),(Citation: Lookout Uyghur Campaign),(Citation: Kaspersky Riltok June 2019),(Citation: Cybereason FakeSpy),(Citation: threatfabric_sova_0921),(Citation: SWB Exodus March 2019),</t>
+    <t>(Citation: Sophos Red Alert 2.0),(Citation: Kaspersky-Skygofree),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout Uyghur Campaign),(Citation: Talos GPlayed),(Citation: Cybereason EventBot),(Citation: cyble_chameleon_0423),(Citation: lookout_hornbill_sunbird_0221),(Citation: Kaspersky-MobileMalware),(Citation: proofpoint_flubot_0421),(Citation: Wandera-RedDrop),(Citation: Kaspersky-WUC),(Citation: securelist rotexy 2018),(Citation: SecureList - ViceLeaker 2019),(Citation: FireEye-RuMMS),(Citation: SecurityIntelligence TrickMo),(Citation: lookout_bouldspy_0423),(Citation: Bitdefender - Triout 2018),(Citation: ESET DEFENSOR ID),(Citation: Talos Gustuff Apr 2019),(Citation: paloalto_yispecter_1015),(Citation: Threat Fabric Exobot),(Citation: Securelist Asacub),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Kaspersky Riltok June 2019),(Citation: Symantec GoldenCup),(Citation: SWB Exodus March 2019),(Citation: CheckPoint Cerberus),(Citation: lookout_abstractemu_1021),(Citation: TrendMicro Coronavirus Updates),(Citation: Zimperium FlyTrap),(Citation: Google Bread),(Citation: threatfabric_sova_0921),(Citation: Cybereason FakeSpy),(Citation: Volexity Insomnia),(Citation: nccgroup_sharkbot_0322),</t>
   </si>
   <si>
     <t>source ID</t>
